--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3842.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3842.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274183038105027</v>
+        <v>3.573599100112915</v>
       </c>
       <c r="B1">
-        <v>2.127321282138717</v>
+        <v>7.281776428222656</v>
       </c>
       <c r="C1">
-        <v>4.483767662348423</v>
+        <v>6.96187686920166</v>
       </c>
       <c r="D1">
-        <v>3.68734194248581</v>
+        <v>6.307700634002686</v>
       </c>
       <c r="E1">
-        <v>1.113086419454457</v>
+        <v>3.340533256530762</v>
       </c>
     </row>
   </sheetData>
